--- a/Files/college_info/all_colleges/CMRK/CMRK_placements.xlsx
+++ b/Files/college_info/all_colleges/CMRK/CMRK_placements.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugdha\Desktop\python project\self\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE96C7E-F04C-4205-837E-47EC2D07366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45B6CAE-2AF2-49EA-890A-9D729097373E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$D$130</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,391 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
+  <si>
+    <t>Accenture_6.5</t>
+  </si>
+  <si>
+    <t>Accenture_4.5</t>
+  </si>
+  <si>
+    <t>Adobe_31</t>
+  </si>
+  <si>
+    <t>Amazon_44</t>
+  </si>
+  <si>
+    <t>Amazon_18</t>
+  </si>
+  <si>
+    <t>Amazon-AWS_5.5</t>
+  </si>
+  <si>
+    <t>Birlasoft_3.6</t>
+  </si>
+  <si>
+    <t>BNP Paribas_4.3</t>
+  </si>
+  <si>
+    <t>Capgemini_7.5</t>
+  </si>
+  <si>
+    <t>Capgemini_4</t>
+  </si>
+  <si>
+    <t>Cogniaznt-Gen-C_4</t>
+  </si>
+  <si>
+    <t>Cogniaznt-GenC- Elevate_4.25</t>
+  </si>
+  <si>
+    <t>Cogniaznt-GenC- Next_6.75</t>
+  </si>
+  <si>
+    <t>Cogniaznt-GenC-Pro_5.4</t>
+  </si>
+  <si>
+    <t>ComakeIT_8</t>
+  </si>
+  <si>
+    <t>Concentric_5</t>
+  </si>
+  <si>
+    <t>Core Stack_6</t>
+  </si>
+  <si>
+    <t>Coupa Software_6</t>
+  </si>
+  <si>
+    <t>Cresen solutions_5.5</t>
+  </si>
+  <si>
+    <t>Ctrls_3.75</t>
+  </si>
+  <si>
+    <t>CyberArk_10</t>
+  </si>
+  <si>
+    <t>Darwinbox_15</t>
+  </si>
+  <si>
+    <t>Deloitte_4.5</t>
+  </si>
+  <si>
+    <t>Devathon_5.5</t>
+  </si>
+  <si>
+    <t>EPAM RD_4</t>
+  </si>
+  <si>
+    <t>Full Creative_7</t>
+  </si>
+  <si>
+    <t>Hackwith Infy-DSE_6.25</t>
+  </si>
+  <si>
+    <t>Hackwith Infy-PP_9.5</t>
+  </si>
+  <si>
+    <t>Hackwith Infy-SE_3.6</t>
+  </si>
+  <si>
+    <t>Harman_5</t>
+  </si>
+  <si>
+    <t>HCL_4.25</t>
+  </si>
+  <si>
+    <t>ICICI_2.4</t>
+  </si>
+  <si>
+    <t>Inception_10</t>
+  </si>
+  <si>
+    <t>Infathon_11</t>
+  </si>
+  <si>
+    <t>Infinite computer sloution_4.5</t>
+  </si>
+  <si>
+    <t>Infinite computer sloution_3.5</t>
+  </si>
+  <si>
+    <t>Infor_6</t>
+  </si>
+  <si>
+    <t>Informatica_7.49</t>
+  </si>
+  <si>
+    <t>Infosys DSE_6.25</t>
+  </si>
+  <si>
+    <t>Infosys-SE_3.6</t>
+  </si>
+  <si>
+    <t>InfyTQ-SE_3.6</t>
+  </si>
+  <si>
+    <t>Intellect Design_5</t>
+  </si>
+  <si>
+    <t>ITC InfoTech_4.25</t>
+  </si>
+  <si>
+    <t>Jocata_6.5</t>
+  </si>
+  <si>
+    <t>KANTAR_4</t>
+  </si>
+  <si>
+    <t>KPIT Technologies_4</t>
+  </si>
+  <si>
+    <t>LTI_8</t>
+  </si>
+  <si>
+    <t>LTI_6.5</t>
+  </si>
+  <si>
+    <t>LTI_5.25</t>
+  </si>
+  <si>
+    <t>LTI_5</t>
+  </si>
+  <si>
+    <t>MAQ_7.5</t>
+  </si>
+  <si>
+    <t>MAQ_6</t>
+  </si>
+  <si>
+    <t>Medblaze_8.2</t>
+  </si>
+  <si>
+    <t>Mediamint_3.19</t>
+  </si>
+  <si>
+    <t>Mentor Graphics_17.25</t>
+  </si>
+  <si>
+    <t>Mentor Graphics_12</t>
+  </si>
+  <si>
+    <t>Modak Analytics_6</t>
+  </si>
+  <si>
+    <t>NextGen Gaming_4.5</t>
+  </si>
+  <si>
+    <t>Nineleaps_6</t>
+  </si>
+  <si>
+    <t>O.C.Tanner_8</t>
+  </si>
+  <si>
+    <t>Open Text_7.25</t>
+  </si>
+  <si>
+    <t>Optum_7.5</t>
+  </si>
+  <si>
+    <t>Plan ON_8</t>
+  </si>
+  <si>
+    <t>Progress_8</t>
+  </si>
+  <si>
+    <t>Quest Global_3.5</t>
+  </si>
+  <si>
+    <t>Reliance_7.5</t>
+  </si>
+  <si>
+    <t>Renault Nissan_1.8</t>
+  </si>
+  <si>
+    <t>Resolute_1.8</t>
+  </si>
+  <si>
+    <t>Sapiens_10</t>
+  </si>
+  <si>
+    <t>SIMENES_12</t>
+  </si>
+  <si>
+    <t>Sixpep_3.25</t>
+  </si>
+  <si>
+    <t>Sundram Fasteners_1.98</t>
+  </si>
+  <si>
+    <t>Sutherland_2.5</t>
+  </si>
+  <si>
+    <t>TCS Digital_7</t>
+  </si>
+  <si>
+    <t>TCS NINJA_3.36</t>
+  </si>
+  <si>
+    <t>TCS NQT_3.96</t>
+  </si>
+  <si>
+    <t>TCS NQT_3.36</t>
+  </si>
+  <si>
+    <t>Techigai_8</t>
+  </si>
+  <si>
+    <t>Techigai_6</t>
+  </si>
+  <si>
+    <t>Teksystems_6</t>
+  </si>
+  <si>
+    <t>Temenos_6.3</t>
+  </si>
+  <si>
+    <t>Virtusa_6.5</t>
+  </si>
+  <si>
+    <t>Virtusa_5.5</t>
+  </si>
+  <si>
+    <t>Virtusa_4</t>
+  </si>
+  <si>
+    <t>Virtusa Colite_5</t>
+  </si>
+  <si>
+    <t>Virtusa GTP_4</t>
+  </si>
+  <si>
+    <t>Virtusa Neural Hack_4</t>
+  </si>
+  <si>
+    <t>WallMart_25</t>
+  </si>
+  <si>
+    <t>Walmart_23.5</t>
+  </si>
+  <si>
+    <t>WinWire Technologies India Pvt. Ltd._4.5</t>
+  </si>
+  <si>
+    <t>Wipro_3.5</t>
+  </si>
+  <si>
+    <t>Yamaha_2.58</t>
+  </si>
+  <si>
+    <t>Zemoso Technologies_6.89</t>
+  </si>
+  <si>
+    <t>Zenoti India Private Limited_7.5</t>
+  </si>
+  <si>
+    <t>Zensar_3.6</t>
+  </si>
+  <si>
+    <t>Zensark_3</t>
+  </si>
+  <si>
+    <t>ACC CEMENT_3.5</t>
+  </si>
+  <si>
+    <t>All State Solutions_4.5</t>
+  </si>
+  <si>
+    <t>Alliant Group_5.7</t>
+  </si>
+  <si>
+    <t>Asian Paint_6.5</t>
+  </si>
+  <si>
+    <t>Canary Staffing_2</t>
+  </si>
+  <si>
+    <t>Clean habor_3</t>
+  </si>
+  <si>
+    <t>Deaf Team Solutions_3</t>
+  </si>
+  <si>
+    <t>Deaf Team Solutions_3.5</t>
+  </si>
+  <si>
+    <t>Fact Set_2.57</t>
+  </si>
+  <si>
+    <t>Fullerton_4.76</t>
+  </si>
+  <si>
+    <t>IHS Market_6.5</t>
+  </si>
+  <si>
+    <t>IIIT_3</t>
+  </si>
+  <si>
+    <t>ILB_2.4</t>
+  </si>
+  <si>
+    <t>Infinity Learn_5</t>
+  </si>
+  <si>
+    <t>Kotak Life_3.5</t>
+  </si>
+  <si>
+    <t>Media mint_3.19</t>
+  </si>
+  <si>
+    <t>MRF_5.14</t>
+  </si>
+  <si>
+    <t>Muthoot Finance_3</t>
+  </si>
+  <si>
+    <t>NORWIN Technologies_2.3</t>
+  </si>
+  <si>
+    <t>Regalix_3.5</t>
+  </si>
+  <si>
+    <t>S&amp;P Global_5.12</t>
+  </si>
+  <si>
+    <t>Skillvertex_6</t>
+  </si>
+  <si>
+    <t>Skolar_5</t>
+  </si>
+  <si>
+    <t>Sneca Global_2.4</t>
+  </si>
+  <si>
+    <t>Solugenix_3.5</t>
+  </si>
+  <si>
+    <t>TATA AIG_3</t>
+  </si>
+  <si>
+    <t>Tech Hub soft_2.16</t>
+  </si>
+  <si>
+    <t>TVS Motors_2.4</t>
+  </si>
+  <si>
+    <t>Vagarious_1.92</t>
+  </si>
+  <si>
+    <t>Value Labs_2.4</t>
+  </si>
+  <si>
+    <t>VIVO_4.5</t>
+  </si>
+  <si>
+    <t>Zaro Education_6.5</t>
+  </si>
   <si>
     <t>Sl.NO</t>
   </si>
@@ -47,349 +434,7 @@
     <t>OFFERS</t>
   </si>
   <si>
-    <t>Accenture</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>Amazon-AWS</t>
-  </si>
-  <si>
-    <t>Birlasoft</t>
-  </si>
-  <si>
-    <t>BNP Paribas</t>
-  </si>
-  <si>
-    <t>Capgemini</t>
-  </si>
-  <si>
-    <t>Cogniaznt-Gen-C</t>
-  </si>
-  <si>
-    <t>Cogniaznt-GenC- Elevate</t>
-  </si>
-  <si>
-    <t>Cogniaznt-GenC- Next</t>
-  </si>
-  <si>
-    <t>Cogniaznt-GenC-Pro</t>
-  </si>
-  <si>
-    <t>ComakeIT</t>
-  </si>
-  <si>
-    <t>Concentric</t>
-  </si>
-  <si>
-    <t>Core Stack</t>
-  </si>
-  <si>
-    <t>Coupa Software</t>
-  </si>
-  <si>
-    <t>Cresen solutions</t>
-  </si>
-  <si>
-    <t>Ctrls</t>
-  </si>
-  <si>
-    <t>CyberArk</t>
-  </si>
-  <si>
-    <t>Darwinbox</t>
-  </si>
-  <si>
-    <t>Deloitte</t>
-  </si>
-  <si>
-    <t>Devathon</t>
-  </si>
-  <si>
-    <t>EPAM RD</t>
-  </si>
-  <si>
-    <t>Full Creative</t>
-  </si>
-  <si>
-    <t>Hackwith Infy-DSE</t>
-  </si>
-  <si>
-    <t>Hackwith Infy-PP</t>
-  </si>
-  <si>
-    <t>Hackwith Infy-SE</t>
-  </si>
-  <si>
-    <t>Harman</t>
-  </si>
-  <si>
-    <t>HCL</t>
-  </si>
-  <si>
-    <t>ICICI</t>
-  </si>
-  <si>
-    <t>Inception</t>
-  </si>
-  <si>
-    <t>Infathon</t>
-  </si>
-  <si>
-    <t>Infinite computer sloution</t>
-  </si>
-  <si>
-    <t>Infor</t>
-  </si>
-  <si>
-    <t>Informatica</t>
-  </si>
-  <si>
-    <t>Infosys DSE</t>
-  </si>
-  <si>
-    <t>Infosys-SE</t>
-  </si>
-  <si>
-    <t>InfyTQ-SE</t>
-  </si>
-  <si>
-    <t>Intellect Design</t>
-  </si>
-  <si>
-    <t>ITC InfoTech</t>
-  </si>
-  <si>
-    <t>Jocata</t>
-  </si>
-  <si>
-    <t>KANTAR</t>
-  </si>
-  <si>
-    <t>KPIT Technologies</t>
-  </si>
-  <si>
-    <t>LTI</t>
-  </si>
-  <si>
-    <t>MAQ</t>
-  </si>
-  <si>
-    <t>Medblaze</t>
-  </si>
-  <si>
-    <t>Mediamint</t>
-  </si>
-  <si>
-    <t>Mentor Graphics</t>
-  </si>
-  <si>
-    <t>Modak Analytics</t>
-  </si>
-  <si>
-    <t>NextGen Gaming</t>
-  </si>
-  <si>
-    <t>Nineleaps</t>
-  </si>
-  <si>
-    <t>O.C.Tanner</t>
-  </si>
-  <si>
-    <t>Open Text</t>
-  </si>
-  <si>
-    <t>Optum</t>
-  </si>
-  <si>
-    <t>Zaro Education</t>
-  </si>
-  <si>
-    <t>VIVO</t>
-  </si>
-  <si>
-    <t>Value Labs</t>
-  </si>
-  <si>
-    <t>Vagarious</t>
-  </si>
-  <si>
-    <t>TVS Motors</t>
-  </si>
-  <si>
-    <t>Tech Hub soft</t>
-  </si>
-  <si>
-    <t>TATA AIG</t>
-  </si>
-  <si>
-    <t>Solugenix</t>
-  </si>
-  <si>
-    <t>Plan ON</t>
-  </si>
-  <si>
-    <t>Progress</t>
-  </si>
-  <si>
-    <t>Quest Global</t>
-  </si>
-  <si>
-    <t>Reliance</t>
-  </si>
-  <si>
-    <t>Renault Nissan</t>
-  </si>
-  <si>
-    <t>Resolute</t>
-  </si>
-  <si>
-    <t>Sapiens</t>
-  </si>
-  <si>
-    <t>SIMENES</t>
-  </si>
-  <si>
-    <t>Sixpep</t>
-  </si>
-  <si>
-    <t>Sundram Fasteners</t>
-  </si>
-  <si>
-    <t>Sutherland</t>
-  </si>
-  <si>
-    <t>TCS Digital</t>
-  </si>
-  <si>
-    <t>TCS NINJA</t>
-  </si>
-  <si>
-    <t>TCS NQT</t>
-  </si>
-  <si>
-    <t>Techigai</t>
-  </si>
-  <si>
-    <t>Teksystems</t>
-  </si>
-  <si>
-    <t>Temenos</t>
-  </si>
-  <si>
-    <t>Virtusa</t>
-  </si>
-  <si>
-    <t>Virtusa Colite</t>
-  </si>
-  <si>
-    <t>Virtusa GTP</t>
-  </si>
-  <si>
-    <t>Virtusa Neural Hack</t>
-  </si>
-  <si>
-    <t>WallMart</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>WinWire Technologies India Pvt. Ltd.</t>
-  </si>
-  <si>
-    <t>Wipro</t>
-  </si>
-  <si>
-    <t>Dr. Reddy's Labortories</t>
-  </si>
-  <si>
-    <t>Yamaha</t>
-  </si>
-  <si>
-    <t>Zemoso Technologies</t>
-  </si>
-  <si>
-    <t>Zenoti India Private Limited</t>
-  </si>
-  <si>
-    <t>Zensar</t>
-  </si>
-  <si>
-    <t>Zensark</t>
-  </si>
-  <si>
-    <t>ACC CEMENT</t>
-  </si>
-  <si>
-    <t>All State Solutions</t>
-  </si>
-  <si>
-    <t>Alliant Group</t>
-  </si>
-  <si>
-    <t>Asian Paint</t>
-  </si>
-  <si>
-    <t>Canary Staffing</t>
-  </si>
-  <si>
-    <t>Clean habor</t>
-  </si>
-  <si>
-    <t>Deaf Team Solutions</t>
-  </si>
-  <si>
-    <t>Fact Set</t>
-  </si>
-  <si>
-    <t>Fullerton</t>
-  </si>
-  <si>
-    <t>IHS Market</t>
-  </si>
-  <si>
-    <t>IIIT</t>
-  </si>
-  <si>
-    <t>ILB</t>
-  </si>
-  <si>
-    <t>Infinity Learn</t>
-  </si>
-  <si>
-    <t>Kotak Life</t>
-  </si>
-  <si>
-    <t>Media mint</t>
-  </si>
-  <si>
-    <t>MRF</t>
-  </si>
-  <si>
-    <t>Muthoot Finance</t>
-  </si>
-  <si>
-    <t>NORWIN Technologies</t>
-  </si>
-  <si>
-    <t>Regalix</t>
-  </si>
-  <si>
-    <t>S&amp;P Global</t>
-  </si>
-  <si>
-    <t>Skillvertex</t>
-  </si>
-  <si>
-    <t>Skolar</t>
-  </si>
-  <si>
-    <t>Sneca Global</t>
+    <t>Dr. Reddy's Labortories_5.5</t>
   </si>
 </sst>
 </file>
@@ -433,9 +478,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -719,40 +765,41 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>6.5</v>
+        <v>44</v>
       </c>
       <c r="D2">
-        <v>104</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,24 +807,24 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.5</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -788,21 +835,21 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>23.5</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>18</v>
@@ -816,24 +863,24 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>17.25</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>5.5</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -844,27 +891,27 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="C9">
-        <v>4.3</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="C10">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,27 +919,27 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
       <c r="D12">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,27 +947,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C13">
-        <v>4.25</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C14">
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,27 +975,27 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>5.4</v>
+        <v>9.5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,24 +1003,24 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -984,27 +1031,27 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="C20">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1012,24 +1059,24 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C21">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1040,24 +1087,24 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="C24">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1068,27 +1115,27 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1096,27 +1143,27 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C27">
+        <v>7.5</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>7.49</v>
+      </c>
+      <c r="D28">
         <v>7</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>6.25</v>
-      </c>
-      <c r="D28">
-        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1124,27 +1171,27 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>9.5</v>
+        <v>7.25</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1152,27 +1199,27 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>4.25</v>
+        <v>6.89</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1180,27 +1227,27 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>2.4</v>
+        <v>6.75</v>
       </c>
       <c r="D33">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1208,27 +1255,27 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1236,27 +1283,27 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1264,27 +1311,27 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>106</v>
       </c>
       <c r="C39">
-        <v>7.49</v>
+        <v>6.5</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C40">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="D40">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1292,27 +1339,27 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="D41">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>3.6</v>
+        <v>6.25</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1320,27 +1367,27 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C44">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1348,24 +1395,24 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C45">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>4</v>
@@ -1376,27 +1423,27 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1404,27 +1451,27 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C49">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C50">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1432,27 +1479,27 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C52">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1460,27 +1507,27 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C54">
-        <v>8.1999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1488,27 +1535,27 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C55">
-        <v>3.19</v>
+        <v>5.5</v>
       </c>
       <c r="D55">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>17.25</v>
+        <v>5.5</v>
       </c>
       <c r="D56">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1516,27 +1563,27 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C57">
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1544,27 +1591,27 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1572,27 +1619,27 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C61">
-        <v>8</v>
+        <v>5.14</v>
       </c>
       <c r="D61">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="C62">
-        <v>7.25</v>
+        <v>5.12</v>
       </c>
       <c r="D62">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,27 +1647,27 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1628,27 +1675,27 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C66">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1656,27 +1703,27 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C67">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="C68">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="D68">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,27 +1731,27 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="C69">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C70">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,24 +1759,24 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>4.5</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -1740,27 +1787,27 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C73">
-        <v>1.98</v>
+        <v>4.5</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="C74">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D74">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,27 +1815,27 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C75">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C76">
-        <v>3.36</v>
+        <v>4.5</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,24 +1843,24 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="C77">
-        <v>3.96</v>
+        <v>4.5</v>
       </c>
       <c r="D77">
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>3.36</v>
+        <v>4.3</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1824,27 +1871,27 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79">
+        <v>4.25</v>
+      </c>
+      <c r="D79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="C79">
-        <v>8</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="D80">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -1852,27 +1899,27 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>4.25</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>6.3</v>
+        <v>4</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -1880,27 +1927,27 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="D83">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84">
-        <v>5.5</v>
-      </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -1908,27 +1955,27 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -1936,17 +1983,17 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -1956,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,24 +2014,24 @@
         <v>86</v>
       </c>
       <c r="C89">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C90">
-        <v>23.5</v>
+        <v>3.96</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -1992,27 +2039,27 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C91">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D92">
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2020,27 +2067,27 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="C93">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C94">
-        <v>6.89</v>
+        <v>3.6</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2048,17 +2095,17 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C95">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -2076,27 +2123,27 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C98">
         <v>3.5</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2104,24 +2151,24 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C99">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C100">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2132,27 +2179,27 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C101">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -2160,24 +2207,24 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2188,24 +2235,24 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C105">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C106">
-        <v>5.5</v>
+        <v>3.36</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2216,27 +2263,27 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C107">
-        <v>2.57</v>
+        <v>3.25</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="C108">
-        <v>4.76</v>
+        <v>3.19</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -2244,27 +2291,27 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C109">
-        <v>6.5</v>
+        <v>3.19</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -2272,24 +2319,24 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C111">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -2300,27 +2347,27 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C113">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C114">
-        <v>3.19</v>
+        <v>3</v>
       </c>
       <c r="D114">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2328,27 +2375,27 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C115">
-        <v>5.14</v>
+        <v>3</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="C116">
-        <v>3</v>
+        <v>2.58</v>
       </c>
       <c r="D116">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -2356,27 +2403,27 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C117">
-        <v>2.2999999999999998</v>
+        <v>2.57</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="C118">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -2384,27 +2431,27 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C119">
-        <v>5.12</v>
+        <v>2.4</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -2412,21 +2459,21 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C121">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C122">
         <v>2.4</v>
@@ -2440,27 +2487,27 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C123">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C124">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,7 +2515,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="C125">
         <v>2.16</v>
@@ -2478,17 +2525,17 @@
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C126">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,27 +2543,27 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C127">
+        <v>1.98</v>
+      </c>
+      <c r="D127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>124</v>
+      </c>
+      <c r="C128">
         <v>1.92</v>
       </c>
-      <c r="D127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128">
-        <v>2.4</v>
-      </c>
       <c r="D128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,30 +2571,35 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C129">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C130">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:D130" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D130">
+      <sortCondition descending="1" ref="C1:C130"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
